--- a/螺纹/eta/螺纹盘面利润_月度数据.xlsx
+++ b/螺纹/eta/螺纹盘面利润_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-357.8</v>
+        <v>-228.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-305.8</v>
+        <v>-309.1</v>
       </c>
       <c r="C3" t="n">
-        <v>-248.4</v>
+        <v>-207.7</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-249.1</v>
       </c>
       <c r="C4" t="n">
-        <v>-237.4</v>
+        <v>-242.5</v>
       </c>
     </row>
     <row r="5">
@@ -653,7 +653,7 @@
         <v>-196.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-196.6</v>
+        <v>-196.5</v>
       </c>
     </row>
     <row r="18">
